--- a/medicine/Enfance/Gilles_Legardinier/Gilles_Legardinier.xlsx
+++ b/medicine/Enfance/Gilles_Legardinier/Gilles_Legardinier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilles Legardinier est un écrivain, réalisateur et scénariste français né le 27 octobre 1965 (58 ans) à Paris. Son roman Demain j'arrête ! (2011) obtient un grand succès[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilles Legardinier est un écrivain, réalisateur et scénariste français né le 27 octobre 1965 (58 ans) à Paris. Son roman Demain j'arrête ! (2011) obtient un grand succès.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été stagiaire sur des plateaux de cinéma en Angleterre et aux États-Unis, Gilles Legardinier devient pyrotechnicien. Il passe par la distribution et le marketing avant de s’orienter vers l’écriture, créant une agence de communication écrite spécialisée dans le cinéma : Coming Soon Productions.
-Après deux thrillers (L’Exil des anges et Nous étions les hommes), il signe sa première comédie, Demain j’arrête !, qui connaît un grand succès public[2],[3],[4]. Il a depuis publié quinze autres ouvrages dans des genres variés. Ses romans sont traduits dans 25 pays et il figure parmi les auteurs français les plus lus[5],[6],[7],[8].
+Après deux thrillers (L’Exil des anges et Nous étions les hommes), il signe sa première comédie, Demain j’arrête !, qui connaît un grand succès public. Il a depuis publié quinze autres ouvrages dans des genres variés. Ses romans sont traduits dans 25 pays et il figure parmi les auteurs français les plus lus.
 Parallèlement à ses premiers romans, il a écrit des projets de commande – notamment Largo Winch (J’ai lu), Stargate SG-1 (J’ai lu), mais aussi Martin Mystère, Jackie Chan et Astro Boy (Pocket jeunesse).
 Gilles Legardinier poursuit ses activités dans le cinéma en tant que script doctor et consultant et rédige des dossiers de presse pour des films depuis 1996, avec Pascale, son épouse, pour des studios comme Walt Disney Company, Sony Pictures, Paramount Pictures, Twentieth Century Fox et Gaumont, entre autres.
-Il coécrit et réalise le film Complètement cramé ! d'après son roman du même nom[9], avec John Malkovich, Fanny Ardant, Emilie Dequenne, Philippe Bas et Eugénie Anselin. Il sort fin 2023.
-Il est chevalier des arts et des lettres, dont il a reçu les insignes des mains de Claude Lelouch[10].
+Il coécrit et réalise le film Complètement cramé ! d'après son roman du même nom, avec John Malkovich, Fanny Ardant, Emilie Dequenne, Philippe Bas et Eugénie Anselin. Il sort fin 2023.
+Il est chevalier des arts et des lettres, dont il a reçu les insignes des mains de Claude Lelouch.
 </t>
         </is>
       </c>
@@ -549,12 +563,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Le Secret de la cité sans soleil, Paris, Éditions J'ai lu, 1996
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Secret de la cité sans soleil, Paris, Éditions J'ai lu, 1996
 avec Pascale Legardinier, Comme une ombre, Paris, Éditions J'ai lu, 2001Publié dans la collection Amour et destin
 Le Sceau des Maîtres, Paris, Éditions J'ai Lu, coll. « J'ai lu jeunesse », 2002
 Le Dernier Géant, Paris, Pocket Jeunesse, coll. « Collection 9/12 ans », 2002
-L'Exil des anges, Paris, Éditions Fleuve noir, 2010Prix SNCF du polar 2010[11]
+L'Exil des anges, Paris, Éditions Fleuve noir, 2010Prix SNCF du polar 2010
 Nous étions les hommes, Paris, Éditions Fleuve noir, 2011
 Demain j'arrête !, Paris, Éditions Fleuve noir, 2011Publié en livre audio, lu par Ingrid Donnadieu, Paris, 2014, éd. Audiolib, 1 disque compact (durée : 8 h 50),  (ISBN 9782356417039), (BNF 43741638)).
 Complètement cramé !, Paris, Éditions Fleuve noir, 2012Publié en livre audio, lu par Philippe Résimont, Paris, 2014, éd. Audiolib, 1 disque compact (durée : 9 h 37),  (ISBN 9782356417800), (BNF 43894005)).
@@ -570,25 +589,202 @@
 Mardi soir, 19H, Paris, Flammarion, 2021, 430 p. (ISBN 978-2-0814-9607-1)
 Le Secret de la cité sans soleil, Paris, Flammarion, 480 p. (ISBN 978-2-0814-2062-5)
 Demain, j'arrête, Pocket, novembre 2022, 432 p.  (ISBN 9782266331487)
-Mon tour de manège, Paris, Flammarion, octobre 2023, 448 p.  (ISBN 9782080258182)
-Cinéma
-Complètement cramé ! : coécrit et réalisé par Gilles Legardinier d'après son roman du même nom, sortie le 1er novembre 2023[12]
-Essais
-avec Mimie Mathy, Vaut-il mieux être toute petite ou abandonné à la naissance ?, Paris, Belfond, 2017, 240 p. (ISBN 978-2-7144-7429-2)
-avec Pascale Legardinier, Les phrases interdites si vous voulez rester en couple, Paris, J'ai lu, 2019, 224 p. (ISBN 978-2-290-20651-5)
-Nouvelles
-Un sourire à tomber, 12-21, 2013, paru uniquement en livre numérique. Rééditée dans le recueil collectif Du sang sur le tour : cinq nouvelles policières sur le Tour de France, 12-21, 2014, paru uniquement en livre numérique.
-Mange le dessert d'abord, dans 13 à table ! 2015 Paris, Pocket n° 16073, novembre 2014.  (ISBN 978-2-266-25405-2)
-Romans jeunesse
-Astroboy
-Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 1 : Première mission, Paris, Éditions Pocket, 2005
+Mon tour de manège, Paris, Flammarion, octobre 2023, 448 p.  (ISBN 9782080258182)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complètement cramé ! : coécrit et réalisé par Gilles Legardinier d'après son roman du même nom, sortie le 1er novembre 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>avec Mimie Mathy, Vaut-il mieux être toute petite ou abandonné à la naissance ?, Paris, Belfond, 2017, 240 p. (ISBN 978-2-7144-7429-2)
+avec Pascale Legardinier, Les phrases interdites si vous voulez rester en couple, Paris, J'ai lu, 2019, 224 p. (ISBN 978-2-290-20651-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un sourire à tomber, 12-21, 2013, paru uniquement en livre numérique. Rééditée dans le recueil collectif Du sang sur le tour : cinq nouvelles policières sur le Tour de France, 12-21, 2014, paru uniquement en livre numérique.
+Mange le dessert d'abord, dans 13 à table ! 2015 Paris, Pocket n° 16073, novembre 2014.  (ISBN 978-2-266-25405-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Astroboy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 1 : Première mission, Paris, Éditions Pocket, 2005
 Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 2 : Le piège diabolique, Paris, Éditions Pocket, 2005
 Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 3 : Le secret d'Astro Boy, Paris, Éditions Pocket, 2005
 Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 4 : Astro Boy contre Astro Boy, Paris, Éditions Pocket, 2005
 Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 5 : Le train de la peur, Paris, Éditions Pocket, 2005
-Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 6 : Un drôle d'espion, Paris, Éditions Pocket, 2005
-Martin Mystère
-Gilles Legardinier, d'après un scénario de Jeffrey Alan Schechter, Martin Mystère, vol. 1 : Le monstre de la forêt, Paris, Éditions Pocket, 2006
+Gilles Legardinier et Osamu Tezuka, Astroboy, vol. 6 : Un drôle d'espion, Paris, Éditions Pocket, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Martin Mystère</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gilles Legardinier, d'après un scénario de Jeffrey Alan Schechter, Martin Mystère, vol. 1 : Le monstre de la forêt, Paris, Éditions Pocket, 2006
 Gilles Legardinier, d'après un scénario de Jeffrey Alan Schechter, Martin Mystère, vol. 2 : Le collège des sorcières, Paris, Éditions Pocket, 2006
 Gilles Legardinier, d'après un scénario de Jeffrey Alan Schechter, Martin Mystère, vol. 3 : La vengeance du druide maudit, Paris, Éditions Pocket, 2006
 Gilles Legardinier, d'après un scénario de Jeffrey Alan Schechter, Martin Mystère, vol. 4 : Enlevés dans l'autre dimension, Paris, Éditions Pocket, 2006
@@ -603,44 +799,122 @@
 Gilles Legardinier, d'après un scénario de Ben Joseph et Frank Young, Martin Mystère, vol. 13 : La cité de la terreur, Paris, Éditions Pocket, 2009=
 Gilles Legardinier, d'après un scénario de Rob Heagee, Martin Mystère, vol. 14 : Les voyants maléfiques, Paris, Éditions Pocket, 2009
 Gilles Legardinier, d'après un scénario de Ron DeGenova, Martin Mystère, vol. 15 : La tribu oubliée, Paris, Éditions Pocket, 2009
-Gilles Legardinier, d'après un scénario de Richard Clark, Martin Mystère, vol. 16 : La maison de l'épouvante, Paris, Éditions Pocket, 2009
-Largo Winch
-Jean Van Hamme et Gilles Legardinier, Largo Winch : Projet arctique, Paris, Éditions J'ai lu, 2001
+Gilles Legardinier, d'après un scénario de Richard Clark, Martin Mystère, vol. 16 : La maison de l'épouvante, Paris, Éditions Pocket, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Largo Winch</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jean Van Hamme et Gilles Legardinier, Largo Winch : Projet arctique, Paris, Éditions J'ai lu, 2001
 Jean Van Hamme et Gilles Legardinier, Largo Winch : L'Héritier, Paris, Éditions J'ai lu, 2001
 Jean Van Hamme et Gilles Legardinier, Largo Winch : Manipulations, Paris, Éditions J'ai lu, 2002
-Jean Van Hamme et Gilles Legardinier, Largo Winch : Femme fatale, Paris, Éditions J'ai lu, 2003
-Un dos tres
-Gilles Legardinier, Un dos tres, vol. 1 : Premiers pas vers le rêve, Paris, Éditions M6, 2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gilles_Legardinier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Jean Van Hamme et Gilles Legardinier, Largo Winch : Femme fatale, Paris, Éditions J'ai lu, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Un dos tres</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Gilles Legardinier, Un dos tres, vol. 1 : Premiers pas vers le rêve, Paris, Éditions M6, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Legardinier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres Il est fait chevalier le 12 mars 2019[13].</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres Il est fait chevalier le 12 mars 2019.</t>
         </is>
       </c>
     </row>
